--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\GK-EX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5A1CB7-3A8A-4730-BA6C-7F1CCE848272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAD4188-77BF-4DA2-B753-01A1B8F4B0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gamecard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="1065">
   <si>
     <t>八卦阵</t>
   </si>
@@ -3828,6 +3828,10 @@
   </si>
   <si>
     <t>出牌阶段限两次，你可以将一张牌交给一名没有“月桂”标记的角色并令其获得“月桂”标记，有“月桂”标记的角色可以在其出牌阶段移去此标记并交给你一张牌，之后你可以令其回复一点体力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characterLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8437,7 +8441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -11476,10 +11480,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="I75" sqref="I74:I75"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11487,18 +11491,19 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.9140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.9140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="5" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.9140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>511</v>
       </c>
@@ -11518,27 +11523,30 @@
         <v>507</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>156</v>
       </c>
@@ -11557,30 +11565,33 @@
       <c r="F2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="2" t="b">
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I2" s="2">
-        <v>4</v>
       </c>
       <c r="J2" s="2">
         <v>4</v>
       </c>
       <c r="K2" s="2">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>165</v>
       </c>
@@ -11599,24 +11610,27 @@
       <c r="F3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="2" t="b">
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2">
         <v>0</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>170</v>
       </c>
@@ -11635,30 +11649,33 @@
       <c r="F4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G4" s="2" t="b">
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I4" s="2">
-        <v>4</v>
       </c>
       <c r="J4" s="2">
         <v>4</v>
       </c>
       <c r="K4" s="2">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2">
         <v>0</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>177</v>
       </c>
@@ -11677,30 +11694,33 @@
       <c r="F5" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="2" t="b">
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4</v>
       </c>
       <c r="J5" s="2">
         <v>4</v>
       </c>
       <c r="K5" s="2">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2">
         <v>0</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>184</v>
       </c>
@@ -11719,30 +11739,33 @@
       <c r="F6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="2" t="b">
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I6" s="2">
-        <v>3</v>
       </c>
       <c r="J6" s="2">
         <v>3</v>
       </c>
       <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>190</v>
       </c>
@@ -11761,30 +11784,33 @@
       <c r="F7" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="2" t="b">
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="I7" s="2">
-        <v>3</v>
       </c>
       <c r="J7" s="2">
         <v>3</v>
       </c>
       <c r="K7" s="2">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>541</v>
       </c>
@@ -11803,32 +11829,35 @@
       <c r="F8" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="2" t="b">
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3</v>
       </c>
       <c r="J8" s="2">
         <v>3</v>
       </c>
       <c r="K8" s="2">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>201</v>
       </c>
@@ -11847,30 +11876,33 @@
       <c r="F9" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G9" s="2" t="b">
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I9" s="2">
-        <v>4</v>
       </c>
       <c r="J9" s="2">
         <v>4</v>
       </c>
       <c r="K9" s="2">
+        <v>4</v>
+      </c>
+      <c r="L9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>207</v>
       </c>
@@ -11889,32 +11921,35 @@
       <c r="F10" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G10" s="2" t="b">
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I10" s="2">
-        <v>4</v>
       </c>
       <c r="J10" s="2">
         <v>4</v>
       </c>
       <c r="K10" s="2">
+        <v>4</v>
+      </c>
+      <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>214</v>
       </c>
@@ -11933,32 +11968,35 @@
       <c r="F11" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G11" s="2" t="b">
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3</v>
       </c>
       <c r="J11" s="2">
         <v>3</v>
       </c>
       <c r="K11" s="2">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>220</v>
       </c>
@@ -11977,30 +12015,33 @@
       <c r="F12" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G12" s="2" t="b">
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I12" s="2">
-        <v>4</v>
       </c>
       <c r="J12" s="2">
         <v>4</v>
       </c>
       <c r="K12" s="2">
+        <v>4</v>
+      </c>
+      <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>225</v>
       </c>
@@ -12019,30 +12060,33 @@
       <c r="F13" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="2" t="b">
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I13" s="2">
-        <v>3</v>
       </c>
       <c r="J13" s="2">
         <v>3</v>
       </c>
       <c r="K13" s="2">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>230</v>
       </c>
@@ -12061,30 +12105,33 @@
       <c r="F14" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="2" t="b">
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I14" s="2">
-        <v>3</v>
       </c>
       <c r="J14" s="2">
         <v>3</v>
       </c>
       <c r="K14" s="2">
+        <v>3</v>
+      </c>
+      <c r="L14" s="2">
         <v>0</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>236</v>
       </c>
@@ -12103,32 +12150,35 @@
       <c r="F15" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="2" t="b">
+      <c r="G15" s="2">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I15" s="2">
-        <v>3</v>
       </c>
       <c r="J15" s="2">
         <v>3</v>
       </c>
       <c r="K15" s="2">
+        <v>3</v>
+      </c>
+      <c r="L15" s="2">
         <v>0</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>242</v>
       </c>
@@ -12147,32 +12197,35 @@
       <c r="F16" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G16" s="2" t="b">
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I16" s="2">
-        <v>3</v>
       </c>
       <c r="J16" s="2">
         <v>3</v>
       </c>
       <c r="K16" s="2">
+        <v>3</v>
+      </c>
+      <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>248</v>
       </c>
@@ -12191,30 +12244,33 @@
       <c r="F17" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G17" s="2" t="b">
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I17" s="2">
-        <v>3</v>
       </c>
       <c r="J17" s="2">
         <v>3</v>
       </c>
       <c r="K17" s="2">
+        <v>3</v>
+      </c>
+      <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>253</v>
       </c>
@@ -12233,32 +12289,35 @@
       <c r="F18" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G18" s="2" t="b">
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I18" s="2">
-        <v>4</v>
       </c>
       <c r="J18" s="2">
         <v>4</v>
       </c>
       <c r="K18" s="2">
+        <v>4</v>
+      </c>
+      <c r="L18" s="2">
         <v>0</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>259</v>
       </c>
@@ -12277,30 +12336,33 @@
       <c r="F19" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G19" s="2" t="b">
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I19" s="2">
-        <v>4</v>
       </c>
       <c r="J19" s="2">
         <v>4</v>
       </c>
       <c r="K19" s="2">
+        <v>4</v>
+      </c>
+      <c r="L19" s="2">
         <v>0</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>542</v>
       </c>
@@ -12319,30 +12381,33 @@
       <c r="F20" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G20" s="2" t="b">
+      <c r="G20" s="2">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I20" s="2">
-        <v>4</v>
       </c>
       <c r="J20" s="2">
         <v>4</v>
       </c>
       <c r="K20" s="2">
+        <v>4</v>
+      </c>
+      <c r="L20" s="2">
         <v>0</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>268</v>
       </c>
@@ -12361,30 +12426,33 @@
       <c r="F21" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G21" s="2" t="b">
+      <c r="G21" s="2">
+        <v>4</v>
+      </c>
+      <c r="H21" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I21" s="2">
-        <v>3</v>
       </c>
       <c r="J21" s="2">
         <v>3</v>
       </c>
       <c r="K21" s="2">
+        <v>3</v>
+      </c>
+      <c r="L21" s="2">
         <v>0</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>273</v>
       </c>
@@ -12403,30 +12471,33 @@
       <c r="F22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G22" s="2" t="b">
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I22" s="2">
-        <v>4</v>
       </c>
       <c r="J22" s="2">
         <v>4</v>
       </c>
       <c r="K22" s="2">
+        <v>4</v>
+      </c>
+      <c r="L22" s="2">
         <v>0</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>278</v>
       </c>
@@ -12445,32 +12516,35 @@
       <c r="F23" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G23" s="2" t="b">
+      <c r="G23" s="2">
+        <v>4</v>
+      </c>
+      <c r="H23" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I23" s="2">
-        <v>3</v>
       </c>
       <c r="J23" s="2">
         <v>3</v>
       </c>
       <c r="K23" s="2">
+        <v>3</v>
+      </c>
+      <c r="L23" s="2">
         <v>0</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>284</v>
       </c>
@@ -12489,30 +12563,33 @@
       <c r="F24" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="2" t="b">
+      <c r="G24" s="2">
+        <v>4</v>
+      </c>
+      <c r="H24" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="I24" s="2">
-        <v>3</v>
       </c>
       <c r="J24" s="2">
         <v>3</v>
       </c>
       <c r="K24" s="2">
+        <v>3</v>
+      </c>
+      <c r="L24" s="2">
         <v>0</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>289</v>
       </c>
@@ -12531,30 +12608,33 @@
       <c r="F25" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="2" t="b">
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I25" s="2">
-        <v>3</v>
       </c>
       <c r="J25" s="2">
         <v>3</v>
       </c>
       <c r="K25" s="2">
+        <v>3</v>
+      </c>
+      <c r="L25" s="2">
         <v>0</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>294</v>
       </c>
@@ -12573,30 +12653,33 @@
       <c r="F26" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G26" s="2" t="b">
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I26" s="2">
-        <v>3</v>
       </c>
       <c r="J26" s="2">
         <v>3</v>
       </c>
       <c r="K26" s="2">
+        <v>3</v>
+      </c>
+      <c r="L26" s="2">
         <v>0</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>299</v>
       </c>
@@ -12615,30 +12698,33 @@
       <c r="F27" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="G27" s="2" t="b">
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H27" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I27" s="2">
-        <v>3</v>
       </c>
       <c r="J27" s="2">
         <v>3</v>
       </c>
       <c r="K27" s="2">
+        <v>3</v>
+      </c>
+      <c r="L27" s="2">
         <v>0</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>304</v>
       </c>
@@ -12657,30 +12743,33 @@
       <c r="F28" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G28" s="2" t="b">
+      <c r="G28" s="2">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I28" s="2">
-        <v>4</v>
       </c>
       <c r="J28" s="2">
         <v>4</v>
       </c>
       <c r="K28" s="2">
+        <v>4</v>
+      </c>
+      <c r="L28" s="2">
         <v>0</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>309</v>
       </c>
@@ -12699,30 +12788,33 @@
       <c r="F29" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G29" s="2" t="b">
+      <c r="G29" s="2">
+        <v>4</v>
+      </c>
+      <c r="H29" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I29" s="2">
-        <v>4</v>
       </c>
       <c r="J29" s="2">
         <v>4</v>
       </c>
       <c r="K29" s="2">
+        <v>4</v>
+      </c>
+      <c r="L29" s="2">
         <v>0</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>314</v>
       </c>
@@ -12741,30 +12833,33 @@
       <c r="F30" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G30" s="2" t="b">
+      <c r="G30" s="2">
+        <v>4</v>
+      </c>
+      <c r="H30" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I30" s="2">
-        <v>3</v>
       </c>
       <c r="J30" s="2">
         <v>3</v>
       </c>
       <c r="K30" s="2">
+        <v>3</v>
+      </c>
+      <c r="L30" s="2">
         <v>0</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>319</v>
       </c>
@@ -12783,32 +12878,35 @@
       <c r="F31" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="G31" s="2" t="b">
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I31" s="2">
-        <v>4</v>
       </c>
       <c r="J31" s="2">
         <v>4</v>
       </c>
       <c r="K31" s="2">
+        <v>4</v>
+      </c>
+      <c r="L31" s="2">
         <v>0</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>325</v>
       </c>
@@ -12827,30 +12925,33 @@
       <c r="F32" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G32" s="2" t="b">
+      <c r="G32" s="2">
+        <v>4</v>
+      </c>
+      <c r="H32" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I32" s="2">
-        <v>4</v>
       </c>
       <c r="J32" s="2">
         <v>4</v>
       </c>
       <c r="K32" s="2">
+        <v>4</v>
+      </c>
+      <c r="L32" s="2">
         <v>0</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>330</v>
       </c>
@@ -12869,30 +12970,33 @@
       <c r="F33" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G33" s="2" t="b">
+      <c r="G33" s="2">
+        <v>4</v>
+      </c>
+      <c r="H33" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I33" s="2">
-        <v>4</v>
       </c>
       <c r="J33" s="2">
         <v>4</v>
       </c>
       <c r="K33" s="2">
+        <v>4</v>
+      </c>
+      <c r="L33" s="2">
         <v>0</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>335</v>
       </c>
@@ -12909,24 +13013,27 @@
       <c r="F34" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="2" t="b">
+      <c r="G34" s="2">
+        <v>5</v>
+      </c>
+      <c r="H34" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
+      <c r="I34" s="2"/>
       <c r="J34" s="2">
         <v>0</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
       </c>
-      <c r="L34" s="2"/>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>338</v>
       </c>
@@ -12943,24 +13050,27 @@
       <c r="F35" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="2" t="b">
+      <c r="G35" s="2">
+        <v>5</v>
+      </c>
+      <c r="H35" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="2">
         <v>0</v>
       </c>
       <c r="K35" s="2">
         <v>0</v>
       </c>
-      <c r="L35" s="2"/>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>340</v>
       </c>
@@ -12977,24 +13087,27 @@
       <c r="F36" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G36" s="2" t="b">
+      <c r="G36" s="2">
+        <v>5</v>
+      </c>
+      <c r="H36" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
+      <c r="I36" s="2"/>
       <c r="J36" s="2">
         <v>0</v>
       </c>
       <c r="K36" s="2">
         <v>0</v>
       </c>
-      <c r="L36" s="2"/>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>342</v>
       </c>
@@ -13011,24 +13124,27 @@
       <c r="F37" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G37" s="2" t="b">
+      <c r="G37" s="2">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
+      <c r="I37" s="2"/>
       <c r="J37" s="2">
         <v>0</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
       </c>
-      <c r="L37" s="2"/>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>344</v>
       </c>
@@ -13045,24 +13161,27 @@
       <c r="F38" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G38" s="2" t="b">
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
+      <c r="H38" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
+      <c r="I38" s="2"/>
       <c r="J38" s="2">
         <v>0</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
       </c>
-      <c r="L38" s="2"/>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>346</v>
       </c>
@@ -13081,32 +13200,35 @@
       <c r="F39" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G39" s="2" t="b">
+      <c r="G39" s="2">
+        <v>5</v>
+      </c>
+      <c r="H39" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I39" s="2">
-        <v>3</v>
       </c>
       <c r="J39" s="2">
         <v>3</v>
       </c>
       <c r="K39" s="2">
+        <v>3</v>
+      </c>
+      <c r="L39" s="2">
         <v>0</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>352</v>
       </c>
@@ -13125,32 +13247,35 @@
       <c r="F40" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G40" s="2" t="b">
+      <c r="G40" s="2">
+        <v>5</v>
+      </c>
+      <c r="H40" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I40" s="2">
-        <v>3</v>
       </c>
       <c r="J40" s="2">
         <v>3</v>
       </c>
       <c r="K40" s="2">
+        <v>3</v>
+      </c>
+      <c r="L40" s="2">
         <v>0</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="O40" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>358</v>
       </c>
@@ -13169,30 +13294,33 @@
       <c r="F41" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G41" s="2" t="b">
+      <c r="G41" s="2">
+        <v>5</v>
+      </c>
+      <c r="H41" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <v>3</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <v>4</v>
       </c>
-      <c r="K41" s="2">
+      <c r="L41" s="2">
         <v>2</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>363</v>
       </c>
@@ -13211,30 +13339,33 @@
       <c r="F42" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G42" s="2" t="b">
+      <c r="G42" s="2">
+        <v>4</v>
+      </c>
+      <c r="H42" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I42" s="2">
-        <v>3</v>
       </c>
       <c r="J42" s="2">
         <v>3</v>
       </c>
       <c r="K42" s="2">
+        <v>3</v>
+      </c>
+      <c r="L42" s="2">
         <v>0</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="N42" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>536</v>
       </c>
@@ -13253,32 +13384,35 @@
       <c r="F43" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G43" s="2" t="b">
+      <c r="G43" s="2">
+        <v>4</v>
+      </c>
+      <c r="H43" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I43" s="2">
-        <v>4</v>
       </c>
       <c r="J43" s="2">
         <v>4</v>
       </c>
       <c r="K43" s="2">
+        <v>4</v>
+      </c>
+      <c r="L43" s="2">
         <v>0</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="N43" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="O43" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>372</v>
       </c>
@@ -13295,24 +13429,27 @@
       <c r="F44" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G44" s="2" t="b">
+      <c r="G44" s="2">
         <v>0</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2">
+      <c r="H44" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="I44" s="2"/>
       <c r="J44" s="2">
         <v>0</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
       </c>
-      <c r="L44" s="2"/>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>374</v>
       </c>
@@ -13331,30 +13468,33 @@
       <c r="F45" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G45" s="2" t="b">
+      <c r="G45" s="2">
+        <v>5</v>
+      </c>
+      <c r="H45" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I45" s="2">
-        <v>4</v>
       </c>
       <c r="J45" s="2">
         <v>4</v>
       </c>
       <c r="K45" s="2">
+        <v>4</v>
+      </c>
+      <c r="L45" s="2">
         <v>0</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>379</v>
       </c>
@@ -13373,30 +13513,33 @@
       <c r="F46" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G46" s="2" t="b">
+      <c r="G46" s="2">
+        <v>5</v>
+      </c>
+      <c r="H46" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I46" s="2">
-        <v>4</v>
       </c>
       <c r="J46" s="2">
         <v>4</v>
       </c>
       <c r="K46" s="2">
+        <v>4</v>
+      </c>
+      <c r="L46" s="2">
         <v>0</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="M46" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="N46" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>384</v>
       </c>
@@ -13415,30 +13558,33 @@
       <c r="F47" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G47" s="2" t="b">
+      <c r="G47" s="2">
+        <v>5</v>
+      </c>
+      <c r="H47" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I47" s="2">
-        <v>4</v>
       </c>
       <c r="J47" s="2">
         <v>4</v>
       </c>
       <c r="K47" s="2">
+        <v>4</v>
+      </c>
+      <c r="L47" s="2">
         <v>0</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="M47" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="N47" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>389</v>
       </c>
@@ -13457,30 +13603,33 @@
       <c r="F48" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G48" s="2" t="b">
+      <c r="G48" s="2">
+        <v>4</v>
+      </c>
+      <c r="H48" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I48" s="2">
-        <v>3</v>
       </c>
       <c r="J48" s="2">
         <v>3</v>
       </c>
       <c r="K48" s="2">
+        <v>3</v>
+      </c>
+      <c r="L48" s="2">
         <v>0</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="N48" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="N48" s="2"/>
-    </row>
-    <row r="49" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>394</v>
       </c>
@@ -13499,30 +13648,33 @@
       <c r="F49" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G49" s="2" t="b">
+      <c r="G49" s="2">
+        <v>5</v>
+      </c>
+      <c r="H49" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I49" s="2">
-        <v>5</v>
       </c>
       <c r="J49" s="2">
         <v>5</v>
       </c>
       <c r="K49" s="2">
+        <v>5</v>
+      </c>
+      <c r="L49" s="2">
         <v>0</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="N49" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>399</v>
       </c>
@@ -13541,30 +13693,33 @@
       <c r="F50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G50" s="2" t="b">
+      <c r="G50" s="2">
+        <v>5</v>
+      </c>
+      <c r="H50" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I50" s="2">
-        <v>4</v>
       </c>
       <c r="J50" s="2">
         <v>4</v>
       </c>
       <c r="K50" s="2">
+        <v>4</v>
+      </c>
+      <c r="L50" s="2">
         <v>0</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="M50" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="N50" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>404</v>
       </c>
@@ -13583,30 +13738,33 @@
       <c r="F51" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G51" s="2" t="b">
+      <c r="G51" s="2">
+        <v>5</v>
+      </c>
+      <c r="H51" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I51" s="2">
-        <v>3</v>
       </c>
       <c r="J51" s="2">
         <v>3</v>
       </c>
       <c r="K51" s="2">
+        <v>3</v>
+      </c>
+      <c r="L51" s="2">
         <v>0</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="N51" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>408</v>
       </c>
@@ -13625,30 +13783,33 @@
       <c r="F52" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G52" s="2" t="b">
+      <c r="G52" s="2">
+        <v>5</v>
+      </c>
+      <c r="H52" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I52" s="2">
-        <v>4</v>
       </c>
       <c r="J52" s="2">
         <v>4</v>
       </c>
       <c r="K52" s="2">
+        <v>4</v>
+      </c>
+      <c r="L52" s="2">
         <v>0</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="M52" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="M52" s="2" t="s">
+      <c r="N52" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>413</v>
       </c>
@@ -13667,30 +13828,33 @@
       <c r="F53" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G53" s="2" t="b">
+      <c r="G53" s="2">
+        <v>5</v>
+      </c>
+      <c r="H53" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I53" s="2">
-        <v>4</v>
       </c>
       <c r="J53" s="2">
         <v>4</v>
       </c>
       <c r="K53" s="2">
+        <v>4</v>
+      </c>
+      <c r="L53" s="2">
         <v>0</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="M53" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="M53" s="2" t="s">
+      <c r="N53" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="N53" s="2"/>
-    </row>
-    <row r="54" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>418</v>
       </c>
@@ -13709,30 +13873,33 @@
       <c r="F54" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G54" s="2" t="b">
+      <c r="G54" s="2">
+        <v>4</v>
+      </c>
+      <c r="H54" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="I54" s="2">
-        <v>3</v>
       </c>
       <c r="J54" s="2">
         <v>3</v>
       </c>
       <c r="K54" s="2">
+        <v>3</v>
+      </c>
+      <c r="L54" s="2">
         <v>0</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="M54" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="M54" s="2" t="s">
+      <c r="N54" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>423</v>
       </c>
@@ -13751,30 +13918,33 @@
       <c r="F55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G55" s="2" t="b">
+      <c r="G55" s="2">
+        <v>5</v>
+      </c>
+      <c r="H55" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I55" s="2">
-        <v>4</v>
       </c>
       <c r="J55" s="2">
         <v>4</v>
       </c>
       <c r="K55" s="2">
+        <v>4</v>
+      </c>
+      <c r="L55" s="2">
         <v>0</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="M55" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="N55" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>428</v>
       </c>
@@ -13793,30 +13963,33 @@
       <c r="F56" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G56" s="2" t="b">
+      <c r="G56" s="2">
+        <v>4</v>
+      </c>
+      <c r="H56" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I56" s="2">
-        <v>4</v>
       </c>
       <c r="J56" s="2">
         <v>4</v>
       </c>
       <c r="K56" s="2">
+        <v>4</v>
+      </c>
+      <c r="L56" s="2">
         <v>0</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="M56" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="N56" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="N56" s="2"/>
-    </row>
-    <row r="57" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>433</v>
       </c>
@@ -13835,32 +14008,35 @@
       <c r="F57" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G57" s="2" t="b">
+      <c r="G57" s="2">
+        <v>4</v>
+      </c>
+      <c r="H57" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="I57" s="2">
-        <v>3</v>
       </c>
       <c r="J57" s="2">
         <v>3</v>
       </c>
       <c r="K57" s="2">
+        <v>3</v>
+      </c>
+      <c r="L57" s="2">
         <v>0</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="N57" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="O57" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>439</v>
       </c>
@@ -13879,32 +14055,35 @@
       <c r="F58" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G58" s="2" t="b">
+      <c r="G58" s="2">
+        <v>5</v>
+      </c>
+      <c r="H58" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I58" s="2">
-        <v>3</v>
       </c>
       <c r="J58" s="2">
         <v>3</v>
       </c>
       <c r="K58" s="2">
+        <v>3</v>
+      </c>
+      <c r="L58" s="2">
         <v>0</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="M58" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="N58" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="O58" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>445</v>
       </c>
@@ -13923,32 +14102,35 @@
       <c r="F59" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G59" s="2" t="b">
+      <c r="G59" s="2">
+        <v>5</v>
+      </c>
+      <c r="H59" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I59" s="2">
-        <v>4</v>
       </c>
       <c r="J59" s="2">
         <v>4</v>
       </c>
       <c r="K59" s="2">
+        <v>4</v>
+      </c>
+      <c r="L59" s="2">
         <v>0</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="M59" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="N59" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="N59" s="2" t="s">
+      <c r="O59" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>451</v>
       </c>
@@ -13967,30 +14149,33 @@
       <c r="F60" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G60" s="2" t="b">
+      <c r="G60" s="2">
+        <v>4</v>
+      </c>
+      <c r="H60" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I60" s="2">
-        <v>3</v>
       </c>
       <c r="J60" s="2">
         <v>3</v>
       </c>
       <c r="K60" s="2">
+        <v>3</v>
+      </c>
+      <c r="L60" s="2">
         <v>0</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="M60" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="M60" s="2" t="s">
+      <c r="N60" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="N60" s="2"/>
-    </row>
-    <row r="61" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>456</v>
       </c>
@@ -14009,32 +14194,35 @@
       <c r="F61" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G61" s="2" t="b">
+      <c r="G61" s="2">
+        <v>4</v>
+      </c>
+      <c r="H61" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I61" s="2">
-        <v>3</v>
       </c>
       <c r="J61" s="2">
         <v>3</v>
       </c>
       <c r="K61" s="2">
+        <v>3</v>
+      </c>
+      <c r="L61" s="2">
         <v>0</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="M61" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="M61" s="2" t="s">
+      <c r="N61" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="N61" s="2" t="s">
+      <c r="O61" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>462</v>
       </c>
@@ -14053,32 +14241,35 @@
       <c r="F62" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G62" s="2" t="b">
+      <c r="G62" s="2">
+        <v>4</v>
+      </c>
+      <c r="H62" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I62" s="2">
-        <v>3</v>
       </c>
       <c r="J62" s="2">
         <v>3</v>
       </c>
       <c r="K62" s="2">
+        <v>3</v>
+      </c>
+      <c r="L62" s="2">
         <v>0</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="M62" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="N62" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="O62" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>468</v>
       </c>
@@ -14097,30 +14288,33 @@
       <c r="F63" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G63" s="2" t="b">
+      <c r="G63" s="2">
+        <v>4</v>
+      </c>
+      <c r="H63" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="I63" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="I63" s="2">
-        <v>3</v>
       </c>
       <c r="J63" s="2">
         <v>3</v>
       </c>
       <c r="K63" s="2">
+        <v>3</v>
+      </c>
+      <c r="L63" s="2">
         <v>0</v>
       </c>
-      <c r="L63" s="7" t="s">
+      <c r="M63" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="M63" s="7" t="s">
+      <c r="N63" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="N63" s="2"/>
-    </row>
-    <row r="64" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>471</v>
       </c>
@@ -14139,32 +14333,35 @@
       <c r="F64" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G64" s="2" t="b">
+      <c r="G64" s="2">
+        <v>5</v>
+      </c>
+      <c r="H64" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I64" s="2">
-        <v>4</v>
       </c>
       <c r="J64" s="2">
         <v>4</v>
       </c>
       <c r="K64" s="2">
+        <v>4</v>
+      </c>
+      <c r="L64" s="2">
         <v>0</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="M64" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="N64" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="N64" s="2" t="s">
+      <c r="O64" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>477</v>
       </c>
@@ -14183,30 +14380,33 @@
       <c r="F65" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G65" s="2" t="b">
+      <c r="G65" s="2">
+        <v>5</v>
+      </c>
+      <c r="H65" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I65" s="2">
-        <v>4</v>
       </c>
       <c r="J65" s="2">
         <v>4</v>
       </c>
       <c r="K65" s="2">
+        <v>4</v>
+      </c>
+      <c r="L65" s="2">
         <v>0</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="M65" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="M65" s="2" t="s">
+      <c r="N65" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="N65" s="2"/>
-    </row>
-    <row r="66" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>482</v>
       </c>
@@ -14225,32 +14425,35 @@
       <c r="F66" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G66" s="2" t="b">
+      <c r="G66" s="2">
+        <v>4</v>
+      </c>
+      <c r="H66" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I66" s="2">
-        <v>3</v>
       </c>
       <c r="J66" s="2">
         <v>3</v>
       </c>
       <c r="K66" s="2">
+        <v>3</v>
+      </c>
+      <c r="L66" s="2">
         <v>0</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="M66" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="M66" s="2" t="s">
+      <c r="N66" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="N66" s="2" t="s">
+      <c r="O66" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>487</v>
       </c>
@@ -14269,30 +14472,33 @@
       <c r="F67" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G67" s="2" t="b">
+      <c r="G67" s="2">
+        <v>4</v>
+      </c>
+      <c r="H67" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="I67" s="2">
-        <v>3</v>
       </c>
       <c r="J67" s="2">
         <v>3</v>
       </c>
       <c r="K67" s="2">
+        <v>3</v>
+      </c>
+      <c r="L67" s="2">
         <v>0</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="M67" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="M67" s="2" t="s">
+      <c r="N67" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="N67" s="2"/>
-    </row>
-    <row r="68" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>492</v>
       </c>
@@ -14311,32 +14517,35 @@
       <c r="F68" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G68" s="2" t="b">
+      <c r="G68" s="2">
+        <v>5</v>
+      </c>
+      <c r="H68" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I68" s="2">
-        <v>4</v>
       </c>
       <c r="J68" s="2">
         <v>4</v>
       </c>
       <c r="K68" s="2">
+        <v>4</v>
+      </c>
+      <c r="L68" s="2">
         <v>0</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="M68" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="M68" s="2" t="s">
+      <c r="N68" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="N68" s="2" t="s">
+      <c r="O68" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>498</v>
       </c>
@@ -14355,30 +14564,33 @@
       <c r="F69" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G69" s="2" t="b">
+      <c r="G69" s="2">
+        <v>4</v>
+      </c>
+      <c r="H69" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I69" s="2">
-        <v>4</v>
       </c>
       <c r="J69" s="2">
         <v>4</v>
       </c>
       <c r="K69" s="2">
+        <v>4</v>
+      </c>
+      <c r="L69" s="2">
         <v>0</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="M69" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="M69" s="2" t="s">
+      <c r="N69" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="N69" s="2"/>
-    </row>
-    <row r="70" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>547</v>
       </c>
@@ -14397,10 +14609,10 @@
       <c r="F70" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2">
+      <c r="G70" s="2">
+        <v>4</v>
+      </c>
+      <c r="H70" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J70" s="2">
@@ -14409,11 +14621,14 @@
       <c r="K70" s="2">
         <v>0</v>
       </c>
-      <c r="L70" s="2"/>
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
-    </row>
-    <row r="71" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>548</v>
       </c>
@@ -14432,32 +14647,35 @@
       <c r="F71" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G71" s="2" t="b">
+      <c r="G71" s="2">
+        <v>5</v>
+      </c>
+      <c r="H71" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="I71" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="I71" s="2">
-        <v>5</v>
       </c>
       <c r="J71" s="2">
         <v>5</v>
       </c>
       <c r="K71" s="2">
+        <v>5</v>
+      </c>
+      <c r="L71" s="2">
         <v>0</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="M71" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="N71" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="N71" s="2" t="s">
+      <c r="O71" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>579</v>
       </c>
@@ -14476,25 +14694,28 @@
       <c r="F72" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="G72" s="7" t="b">
+      <c r="G72" s="7">
         <v>0</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="I72" s="7">
-        <v>4</v>
       </c>
       <c r="J72" s="7">
         <v>4</v>
       </c>
       <c r="K72" s="7">
+        <v>4</v>
+      </c>
+      <c r="L72" s="7">
         <v>0</v>
       </c>
-      <c r="L72" s="7" t="s">
+      <c r="M72" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="M72" s="7" t="s">
+      <c r="N72" s="7" t="s">
         <v>573</v>
       </c>
     </row>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\GK-EX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAD4188-77BF-4DA2-B753-01A1B8F4B0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FAB94F-A866-4E0E-BAAE-ADA5E87EA646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="1058">
   <si>
     <t>八卦阵</t>
   </si>
@@ -649,12 +649,6 @@
     <t>冒险</t>
   </si>
   <si>
-    <t>热血</t>
-  </si>
-  <si>
-    <t>破境</t>
-  </si>
-  <si>
     <t>beidou</t>
   </si>
   <si>
@@ -1616,26 +1610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lockedskill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>missionskill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>changeskill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limitedskill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wakeskill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fischl_yeying</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1657,10 +1631,6 @@
   </si>
   <si>
     <t>出牌阶段，你可以弃置两张牌获得两枚“晚星”标记。你成为牌的目标时，你可以弃置一枚“晚星”标记进行一次判定，若判定结果点数小于此牌点数，此牌对你无效；其他角色出牌阶段结束时，你可以弃置（3-X）张牌，视为对其使用一张冰【杀】（X为“晚星”标记的数量）。场上最多存在2枚“晚星”标记。）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出牌阶段限一次，你的普通【杀】视为火【杀】，且不计入使用次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2331,10 +2301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你使用的【杀】被【闪】响应或你使用【闪】响应【杀】后，你可以弃置任意张牌，之后弃置对方等量的牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fengyan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2843,10 +2809,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>没有“绝境”标记的其他角色进入濒死状态时，你可以令其获得一枚“绝境”标记，回复体力至1点，并弃置所有牌。角色死亡时，其“绝境”标记给予你。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mengji</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2951,14 +2913,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>破境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使命技，成功：场上存活角色小于角色数一半时，若场上存在2枚或以上“绝境”标记，则“冒险”失效，获得“烈火”；失败：若你成功达成使命前，进入濒死状态，则“冒险”失效，你将体力回复至1点并弃置所有装备牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>polong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3015,10 +2969,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>转换技，阳：锁定技，你的&lt;suit:spade&gt;牌视作&lt;suit:heart&gt;牌；阴：任意角色使用&lt;suit:heart&gt;牌时，可以令其摸一张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>renmai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3119,10 +3069,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一名角色的准备阶段，你可以弃置任意张牌，获得等量护甲值；若如此做，结束阶段，你失去全部护甲值，摸等量的牌，之后你可以将这些牌分配给任意角色。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shizui</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3791,10 +3737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一名其他角色的准备阶段，你可以弃置一张牌，若如此做，该回合结束时，你视为对该角色使用一张伤害为X的雷【杀】，并进行一次判定，若结果为黑色，则此杀不可被闪响应；若此杀造成伤害，你摸X+1张牌（X为你本回合成为牌的目标的次数）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zhuolei</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3832,6 +3774,38 @@
   </si>
   <si>
     <t>characterLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你使用或打出【杀】或成为伤害性牌的目标后，你可以弃置至少一张牌并弃置其等量的牌，之后你把手牌摸至体力上限，若如此做，下个准备阶段，你弃置你体力值数量的牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一名其他角色的准备阶段，你可以弃置一张牌，若如此做，该回合结束时，你视为对该角色使用一张伤害为X的雷【杀】，并进行一次判定，若结果为黑色，则此杀不可被闪响应；若此杀造成伤害，你摸X张牌（X为你本回合成为牌的目标的次数且最多为3）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一名角色的准备阶段，你可以弃置至多三张牌，获得等量的护甲值；若如此做，结束阶段，你失去全部护甲值，摸等量的牌，之后你可以将这些牌分配给任意角色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出牌阶段，你可以弃置一张红色牌，令一名角色回复一点体力；若如此做，你摸一张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备阶段，你可以进行判定，若结果为红色，你获得此牌，然后你可以重复此流程。判定阶段，你的&lt;suit:heart&gt;视为&lt;suit:spade&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒技，你处于濒死阶段时，减少一点体力上限，将体力回复至三点，随后“冒险”失效，获得“烈火”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定技，你的红色的【杀】均视为火【杀】；你的火【杀】不计入次数限制。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3909,7 +3883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3921,9 +3895,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4426,7 +4397,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -4447,7 +4418,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -4792,7 +4763,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -4887,7 +4858,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -4925,7 +4896,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -5103,7 +5074,7 @@
         <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>155</v>
@@ -5165,7 +5136,7 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -5243,7 +5214,7 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -5302,7 +5273,7 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -5367,7 +5338,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -5430,7 +5401,7 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -5493,7 +5464,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -5537,7 +5508,7 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -5558,7 +5529,7 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -5598,7 +5569,7 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -5619,7 +5590,7 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -5640,7 +5611,7 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -5661,7 +5632,7 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -5758,7 +5729,7 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -5779,7 +5750,7 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -6169,7 +6140,7 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -6228,7 +6199,7 @@
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -6287,7 +6258,7 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -6365,7 +6336,7 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -6405,7 +6376,7 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -6620,7 +6591,7 @@
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -7206,7 +7177,7 @@
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -7227,7 +7198,7 @@
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -7305,7 +7276,7 @@
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -8011,7 +7982,7 @@
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -8055,7 +8026,7 @@
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -8076,7 +8047,7 @@
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -8116,7 +8087,7 @@
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -8137,7 +8108,7 @@
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -8177,7 +8148,7 @@
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -8198,7 +8169,7 @@
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
@@ -8439,3040 +8410,2152 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="D133" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B108" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="B129" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A140" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A143" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A144" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A146" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A147" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A148" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A149" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A150" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A151" s="5" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="D3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="D8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="6" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="6" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="D12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="6" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="D15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="6" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="D17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="6" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="D18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="6" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="6" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="6" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="6" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="D22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="6" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="6" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="D24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="6" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="6" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="6" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="6" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="6" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="6" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="D31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="6" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="6" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="6" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="6" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="D35" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="6" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="6" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="D38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="6" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="6" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="D40" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="6" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="6" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="6" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="6" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="D44" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="6" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="6" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="6" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="6" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="6" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="6" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="6" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="6" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="D53" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="6" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="D54" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="6" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="6" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="6" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="6" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="6" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>797</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="6" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="6" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="D65" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="6" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="6" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>811</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="D67" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="6" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="6" t="s">
+      <c r="B151" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A152" s="5" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="B152" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="C152" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D152" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="D69" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="6" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="6" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="6" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="6" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="6" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="6" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="D75" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="6" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="6" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>844</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="6" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="D79" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="6" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="6" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="6" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>859</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>861</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="6" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>868</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="6" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="6" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="D87" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="6" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="6" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="6" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="6" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="6" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="6" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="6" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="D94" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="6" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="6" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
-        <v>905</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="6" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="6" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="6" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>915</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>916</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="6" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>919</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>920</v>
-      </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="6" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>922</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>923</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="6" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
-        <v>925</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>926</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="6" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>929</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="6" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
-        <v>931</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>933</v>
-      </c>
-      <c r="D104" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="6" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
-        <v>935</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="6" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
-        <v>939</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="6" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
-        <v>942</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>943</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="6" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>947</v>
-      </c>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
-        <v>948</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>949</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="D109" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="6" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
-        <v>951</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>952</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="6" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
-        <v>954</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>955</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>956</v>
-      </c>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="6" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
-        <v>958</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>959</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="D112" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="6" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
-        <v>961</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>962</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="D113" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="6" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>965</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="D114" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="6" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
-        <v>966</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>967</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="6" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>970</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="6" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>973</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="6" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
-        <v>975</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>976</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="6" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
-        <v>978</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>979</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="6" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
-        <v>981</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>982</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="6" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
-        <v>984</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>985</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>933</v>
-      </c>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="6" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>988</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="D122" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="6" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
-        <v>990</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>991</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="6" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
-        <v>993</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>994</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="6" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
-        <v>996</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>997</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="D125" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="6" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
-        <v>998</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>999</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="6" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I127" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="6" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>947</v>
-      </c>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="6" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="6" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="D131" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="6" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A132" s="6" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="6" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="6" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="6" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="D135" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="6" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D136" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="6" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="6" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="6" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="6" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A140" s="6" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="6" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="6" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A142" s="6" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>920</v>
-      </c>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="6" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>956</v>
-      </c>
-      <c r="D143" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="6" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="6" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="6" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-      <c r="I145" s="6" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="D146" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="6" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A147" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="D147" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="6" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A148" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A149" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="D149" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A150" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="6" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A151" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D151" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="8" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A152" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="8" t="s">
-        <v>1063</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D152">
+    <sortCondition descending="1" ref="C101:C152"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11482,8 +10565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11505,43 +10588,43 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>567</v>
+      <c r="M1" s="9" t="s">
+        <v>559</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -11605,7 +10688,7 @@
         <v>168</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>169</v>
@@ -11734,7 +10817,7 @@
         <v>168</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>187</v>
@@ -11812,7 +10895,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>196</v>
@@ -11839,10 +10922,10 @@
         <v>181</v>
       </c>
       <c r="J8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -11850,31 +10933,31 @@
       <c r="M8" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>200</v>
+      <c r="N8" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G9" s="2">
         <v>4</v>
@@ -11895,22 +10978,22 @@
         <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>159</v>
@@ -11919,7 +11002,7 @@
         <v>193</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G10" s="2">
         <v>5</v>
@@ -11940,30 +11023,30 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>161</v>
@@ -11987,24 +11070,24 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>159</v>
@@ -12034,28 +11117,28 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>174</v>
@@ -12079,28 +11162,28 @@
         <v>0</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>174</v>
@@ -12124,28 +11207,28 @@
         <v>0</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>161</v>
@@ -12169,30 +11252,30 @@
         <v>0</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>187</v>
@@ -12216,33 +11299,33 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G17" s="2">
         <v>5</v>
@@ -12263,22 +11346,22 @@
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>168</v>
@@ -12287,7 +11370,7 @@
         <v>180</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
@@ -12308,24 +11391,24 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>159</v>
@@ -12355,28 +11438,28 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>187</v>
@@ -12400,28 +11483,28 @@
         <v>0</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>187</v>
@@ -12445,28 +11528,28 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>161</v>
@@ -12490,22 +11573,22 @@
         <v>0</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>168</v>
@@ -12535,24 +11618,24 @@
         <v>0</v>
       </c>
       <c r="M23" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>168</v>
@@ -12582,22 +11665,22 @@
         <v>0</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>168</v>
@@ -12627,31 +11710,31 @@
         <v>0</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
@@ -12672,31 +11755,31 @@
         <v>0</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G27" s="2">
         <v>4</v>
@@ -12717,28 +11800,28 @@
         <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>187</v>
@@ -12762,28 +11845,28 @@
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>161</v>
@@ -12807,28 +11890,28 @@
         <v>0</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>161</v>
@@ -12852,31 +11935,31 @@
         <v>0</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G31" s="2">
         <v>5</v>
@@ -12897,30 +11980,30 @@
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>187</v>
@@ -12944,28 +12027,28 @@
         <v>0</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>161</v>
@@ -12989,23 +12072,23 @@
         <v>0</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>146</v>
@@ -13035,14 +12118,14 @@
     </row>
     <row r="35" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>173</v>
@@ -13072,17 +12155,17 @@
     </row>
     <row r="36" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>169</v>
@@ -13109,17 +12192,17 @@
     </row>
     <row r="37" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>169</v>
@@ -13146,14 +12229,14 @@
     </row>
     <row r="38" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>160</v>
@@ -13183,13 +12266,13 @@
     </row>
     <row r="39" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>168</v>
@@ -13219,24 +12302,24 @@
         <v>0</v>
       </c>
       <c r="M39" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>168</v>
@@ -13266,24 +12349,24 @@
         <v>0</v>
       </c>
       <c r="M40" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="O40" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>168</v>
@@ -13313,22 +12396,22 @@
         <v>2</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>168</v>
@@ -13337,7 +12420,7 @@
         <v>160</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G42" s="2">
         <v>4</v>
@@ -13358,22 +12441,22 @@
         <v>0</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>168</v>
@@ -13403,22 +12486,22 @@
         <v>0</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>168</v>
@@ -13451,22 +12534,22 @@
     </row>
     <row r="45" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G45" s="2">
         <v>5</v>
@@ -13487,28 +12570,28 @@
         <v>0</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>161</v>
@@ -13532,28 +12615,28 @@
         <v>0</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>174</v>
@@ -13577,28 +12660,28 @@
         <v>0</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>161</v>
@@ -13622,22 +12705,22 @@
         <v>0</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O48" s="2"/>
     </row>
     <row r="49" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>168</v>
@@ -13667,31 +12750,31 @@
         <v>0</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G50" s="2">
         <v>5</v>
@@ -13712,28 +12795,28 @@
         <v>0</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>187</v>
@@ -13757,22 +12840,22 @@
         <v>0</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>159</v>
@@ -13802,22 +12885,22 @@
         <v>0</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>159</v>
@@ -13847,22 +12930,22 @@
         <v>0</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>159</v>
@@ -13892,28 +12975,28 @@
         <v>0</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>161</v>
@@ -13937,22 +13020,22 @@
         <v>0</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>159</v>
@@ -13982,22 +13065,22 @@
         <v>0</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>168</v>
@@ -14006,7 +13089,7 @@
         <v>180</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G57" s="2">
         <v>4</v>
@@ -14027,24 +13110,24 @@
         <v>0</v>
       </c>
       <c r="M57" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="O57" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>168</v>
@@ -14074,33 +13157,33 @@
         <v>0</v>
       </c>
       <c r="M58" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="O58" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G59" s="2">
         <v>5</v>
@@ -14121,24 +13204,24 @@
         <v>0</v>
       </c>
       <c r="M59" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="O59" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>168</v>
@@ -14147,7 +13230,7 @@
         <v>180</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G60" s="2">
         <v>4</v>
@@ -14168,22 +13251,22 @@
         <v>0</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>159</v>
@@ -14192,7 +13275,7 @@
         <v>193</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G61" s="2">
         <v>4</v>
@@ -14213,24 +13296,24 @@
         <v>0</v>
       </c>
       <c r="M61" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O61" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>168</v>
@@ -14239,7 +13322,7 @@
         <v>180</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G62" s="2">
         <v>4</v>
@@ -14260,24 +13343,24 @@
         <v>0</v>
       </c>
       <c r="M62" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="O62" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>168</v>
@@ -14286,7 +13369,7 @@
         <v>173</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G63" s="2">
         <v>4</v>
@@ -14294,8 +13377,8 @@
       <c r="H63" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I63" s="7" t="s">
-        <v>557</v>
+      <c r="I63" s="6" t="s">
+        <v>549</v>
       </c>
       <c r="J63" s="2">
         <v>3</v>
@@ -14306,23 +13389,23 @@
       <c r="L63" s="2">
         <v>0</v>
       </c>
-      <c r="M63" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="N63" s="7" t="s">
-        <v>581</v>
+      <c r="M63" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>573</v>
       </c>
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>168</v>
@@ -14331,7 +13414,7 @@
         <v>193</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G64" s="2">
         <v>5</v>
@@ -14352,30 +13435,30 @@
         <v>0</v>
       </c>
       <c r="M64" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="O64" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>161</v>
@@ -14399,22 +13482,22 @@
         <v>0</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O65" s="2"/>
     </row>
     <row r="66" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>168</v>
@@ -14423,7 +13506,7 @@
         <v>160</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G66" s="2">
         <v>4</v>
@@ -14444,30 +13527,30 @@
         <v>0</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>187</v>
@@ -14491,22 +13574,22 @@
         <v>0</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O67" s="2"/>
     </row>
     <row r="68" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>159</v>
@@ -14515,7 +13598,7 @@
         <v>160</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G68" s="2">
         <v>5</v>
@@ -14536,33 +13619,33 @@
         <v>0</v>
       </c>
       <c r="M68" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="O68" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G69" s="2">
         <v>4</v>
@@ -14583,28 +13666,28 @@
         <v>0</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O69" s="2"/>
     </row>
     <row r="70" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>161</v>
@@ -14630,19 +13713,19 @@
     </row>
     <row r="71" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>174</v>
@@ -14653,8 +13736,8 @@
       <c r="H71" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I71" s="7" t="s">
-        <v>557</v>
+      <c r="I71" s="6" t="s">
+        <v>549</v>
       </c>
       <c r="J71" s="2">
         <v>5</v>
@@ -14666,57 +13749,57 @@
         <v>0</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="E72" s="7" t="s">
+      <c r="A72" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="G72" s="7">
+      <c r="B72" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G72" s="6">
         <v>0</v>
       </c>
-      <c r="H72" s="7" t="b">
+      <c r="H72" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I72" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="J72" s="7">
+      <c r="I72" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="J72" s="6">
         <v>4</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K72" s="6">
         <v>4</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L72" s="6">
         <v>0</v>
       </c>
-      <c r="M72" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="N72" s="7" t="s">
-        <v>573</v>
+      <c r="M72" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\GK-EX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FAB94F-A866-4E0E-BAAE-ADA5E87EA646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536D5DC8-7E9B-4944-948F-ADB229469BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gamecard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="1059">
   <si>
     <t>八卦阵</t>
   </si>
@@ -3806,6 +3806,10 @@
   </si>
   <si>
     <t>锁定技，你的红色的【杀】均视为火【杀】；你的火【杀】不计入次数限制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dehya_liuyu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3921,7 +3925,18 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -8412,8 +8427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView topLeftCell="D133" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10133,8 +10148,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
-        <v>554</v>
+      <c r="A123" s="7" t="s">
+        <v>1058</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>1044</v>
@@ -10557,6 +10572,9 @@
     <sortCondition descending="1" ref="C101:C152"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10565,8 +10583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
